--- a/public/dunbin_backlog.xlsx
+++ b/public/dunbin_backlog.xlsx
@@ -1732,7 +1732,7 @@
         <v>updated</v>
       </c>
       <c r="C16" t="str">
-        <v>s</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -1786,16 +1786,16 @@
         <v/>
       </c>
       <c r="U16" t="str">
-        <v>s</v>
+        <v/>
       </c>
       <c r="V16" t="str">
         <v/>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
       </c>
       <c r="Y16" t="str">
         <v/>

--- a/public/dunbin_backlog.xlsx
+++ b/public/dunbin_backlog.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1724,95 +1724,9 @@
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
-        <v>1218</v>
-      </c>
-      <c r="B16" t="str">
-        <v>updated</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <v/>
-      </c>
-      <c r="R16" t="str">
-        <v/>
-      </c>
-      <c r="S16" t="str">
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <v/>
-      </c>
-      <c r="W16" t="str">
-        <v/>
-      </c>
-      <c r="X16" t="str">
-        <v/>
-      </c>
-      <c r="Y16" t="str">
-        <v/>
-      </c>
-      <c r="Z16" t="str">
-        <v/>
-      </c>
-      <c r="AA16" t="str">
-        <v/>
-      </c>
-      <c r="AB16" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/dunbin_backlog.xlsx
+++ b/public/dunbin_backlog.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,23 +494,23 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="B2" t="str">
         <v>updated</v>
       </c>
       <c r="C2" t="str">
-        <v>22ttmes</v>
-      </c>
-      <c r="D2">
-        <v>44836</v>
+        <v>a</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Pointy Mask_x000d_
-Slay the Spire</v>
-      </c>
-      <c r="F2" t="str">
-        <v/>
+        <v xml:space="preserve">Founder's Band
+Event Cosmetic</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -525,13 +525,13 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>https://cdn.discordapp.com/attachments/699111007649398865/1026136508085833738/Pointy_sweatling_2.png</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>https://dunkbin.com/img/931.png</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>https://dunkbin.com/img/8.png</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -549,13 +549,13 @@
         <v/>
       </c>
       <c r="S2">
-        <v>45044</v>
+        <v>44121</v>
       </c>
       <c r="T2" t="str">
-        <v>22ttmes</v>
+        <v/>
       </c>
       <c r="U2" t="str">
-        <v>22ttmes</v>
+        <v>a</v>
       </c>
       <c r="V2" t="str">
         <v/>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>45044</v>
+        <v>44121</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B3" t="str">
         <v>updated</v>
@@ -593,7 +593,7 @@
         <v>44836</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Romeo Mask_x000d_
+        <v xml:space="preserve">Pointy Mask_x000d_
 Slay the Spire</v>
       </c>
       <c r="F3" t="str">
@@ -612,10 +612,10 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>https://media.discordapp.net/attachments/699111007649398865/1026136508761120909/romeo_sweatling.png</v>
+        <v>https://cdn.discordapp.com/attachments/699111007649398865/1026136508085833738/Pointy_sweatling_2.png</v>
       </c>
       <c r="L3" t="str">
-        <v>https://dunkbin.com/img/933.png</v>
+        <v>https://dunkbin.com/img/931.png</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -636,7 +636,7 @@
         <v/>
       </c>
       <c r="S3">
-        <v>45046</v>
+        <v>45044</v>
       </c>
       <c r="T3" t="str">
         <v>22ttmes</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>45046</v>
+        <v>45044</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -668,1065 +668,1152 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4">
-        <v>845</v>
+        <v>712</v>
       </c>
       <c r="B4" t="str">
         <v>updated</v>
       </c>
       <c r="C4" t="str">
-        <v>nolava</v>
+        <v>22ttmes</v>
       </c>
       <c r="D4">
+        <v>44836</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Romeo Mask_x000d_
+Slay the Spire</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Accepted</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>https://media.discordapp.net/attachments/699111007649398865/1026136508761120909/romeo_sweatling.png</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://dunkbin.com/img/933.png</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4">
+        <v>45046</v>
+      </c>
+      <c r="T4" t="str">
+        <v>22ttmes</v>
+      </c>
+      <c r="U4" t="str">
+        <v>22ttmes</v>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>45046</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5">
+        <v>845</v>
+      </c>
+      <c r="B5" t="str">
+        <v>updated</v>
+      </c>
+      <c r="C5" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D5">
         <v>44912</v>
       </c>
-      <c r="E4" t="str" xml:space="preserve">
+      <c r="E5" t="str" xml:space="preserve">
         <v xml:space="preserve">Raikage
 Naruto_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573331493859338/5_Kage.png</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L5" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573384342093864/Raikage_hat.png</v>
       </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v/>
-      </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U4" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="str">
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4">
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U5" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5">
+    <row r="6" xml:space="preserve">
+      <c r="A6">
         <v>846</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" t="str">
         <v>updated</v>
       </c>
-      <c r="C5" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D6">
         <v>44912</v>
       </c>
-      <c r="E5" t="str" xml:space="preserve">
+      <c r="E6" t="str" xml:space="preserve">
         <v xml:space="preserve">Kazekage
 Naruto_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573331493859338/5_Kage.png</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L6" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573384384036915/Kazekage_hat.png</v>
       </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <v/>
-      </c>
-      <c r="R5" t="str">
-        <v/>
-      </c>
-      <c r="S5" t="str">
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U5" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="str">
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <v/>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
-      <c r="AB5">
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U6" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6">
+    <row r="7" xml:space="preserve">
+      <c r="A7">
         <v>847</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>updated</v>
       </c>
-      <c r="C6" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D7">
         <v>44912</v>
       </c>
-      <c r="E6" t="str" xml:space="preserve">
+      <c r="E7" t="str" xml:space="preserve">
         <v xml:space="preserve">Mizukage
 Naruto_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573331493859338/5_Kage.png</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L7" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1053573384392429598/Mizukage_hat.png</v>
       </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U6" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6" t="str">
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <v/>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="str">
-        <v/>
-      </c>
-      <c r="AB6">
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U7" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7">
+    <row r="8" xml:space="preserve">
+      <c r="A8">
         <v>853</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B8" t="str">
         <v>updated</v>
       </c>
-      <c r="C7" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D8">
         <v>44916</v>
       </c>
-      <c r="E7" t="str" xml:space="preserve">
+      <c r="E8" t="str" xml:space="preserve">
         <v xml:space="preserve">Leeloo
 The Fifth Element_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263823042449530/Fifth_Element.png</v>
       </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263907536707664/Fifth_Element_Leeloo_Hair.png</v>
       </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263907893223524/Fifth_Element_Leeloo_Shirt.png</v>
       </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U7" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7" t="str">
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <v/>
-      </c>
-      <c r="Z7">
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U8" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8">
         <v>2</v>
       </c>
-      <c r="AA7" t="str">
-        <v/>
-      </c>
-      <c r="AB7">
+      <c r="AA8" t="str">
+        <v/>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8">
+    <row r="9" xml:space="preserve">
+      <c r="A9">
         <v>854</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <v>updated</v>
       </c>
-      <c r="C8" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D9">
         <v>44916</v>
       </c>
-      <c r="E8" t="str" xml:space="preserve">
+      <c r="E9" t="str" xml:space="preserve">
         <v xml:space="preserve">Zorg
 The Fifth Element_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263823042449530/Fifth_Element.png</v>
       </c>
-      <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263944866013275/Fifth_Element_Zorg_Hair.png</v>
       </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263945012809848/Fifth_Element_Zorg_Shirt.png</v>
       </c>
-      <c r="P8" t="str">
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <v/>
-      </c>
-      <c r="R8" t="str">
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U8" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8" t="str">
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <v/>
-      </c>
-      <c r="Z8">
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U9" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
-      <c r="AA8" t="str">
-        <v/>
-      </c>
-      <c r="AB8">
+      <c r="AA9" t="str">
+        <v/>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9">
+    <row r="10" xml:space="preserve">
+      <c r="A10">
         <v>855</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>updated</v>
       </c>
-      <c r="C9" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D10">
         <v>44916</v>
       </c>
-      <c r="E9" t="str" xml:space="preserve">
+      <c r="E10" t="str" xml:space="preserve">
         <v xml:space="preserve">Ruby Rhod
 The Fifth Element_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263823042449530/Fifth_Element.png</v>
       </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263989430497380/Fifth_Element_Ruby_Rhod_Hair.png</v>
       </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1055263989627625482/Fifth_Element_Ruby_Rhod_Shirt.png</v>
       </c>
-      <c r="P9" t="str">
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <v/>
-      </c>
-      <c r="R9" t="str">
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U9" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="str">
-        <v/>
-      </c>
-      <c r="Y9" t="str">
-        <v/>
-      </c>
-      <c r="Z9">
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U10" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="AA9" t="str">
-        <v/>
-      </c>
-      <c r="AB9">
+      <c r="AA10" t="str">
+        <v/>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10">
+    <row r="11" xml:space="preserve">
+      <c r="A11">
         <v>931</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B11" t="str">
         <v>updated</v>
       </c>
-      <c r="C10" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D10">
+      <c r="C11" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D11">
         <v>44994</v>
       </c>
-      <c r="E10" t="str" xml:space="preserve">
+      <c r="E11" t="str" xml:space="preserve">
         <v xml:space="preserve">Kyle
 South Park_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083518900035137637/South_Park.png</v>
       </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083518987985489980/South_Park_Kyle_head.png</v>
       </c>
-      <c r="N10" t="str">
-        <v/>
-      </c>
-      <c r="O10" t="str">
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083518987993890836/South_Park_Kyle_outfit.png</v>
       </c>
-      <c r="P10" t="str">
-        <v/>
-      </c>
-      <c r="Q10" t="str">
-        <v/>
-      </c>
-      <c r="R10" t="str">
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U10" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10" t="str">
-        <v/>
-      </c>
-      <c r="Y10" t="str">
-        <v/>
-      </c>
-      <c r="Z10">
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U11" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
+      <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AA10" t="str">
-        <v/>
-      </c>
-      <c r="AB10">
+      <c r="AA11" t="str">
+        <v/>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11">
+    <row r="12" xml:space="preserve">
+      <c r="A12">
         <v>933</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <v>updated</v>
       </c>
-      <c r="C11" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D11">
+      <c r="C12" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D12">
         <v>44994</v>
       </c>
-      <c r="E11" t="str" xml:space="preserve">
+      <c r="E12" t="str" xml:space="preserve">
         <v xml:space="preserve">Kenny
 South Park_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I11" t="str">
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <v/>
-      </c>
-      <c r="K11" t="str">
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083518900035137637/South_Park.png</v>
       </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083519024337522790/South_Park_Kenny_head.png</v>
       </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
-      <c r="O11" t="str">
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1083519024450785441/South_Park_Kenny_outfit.png</v>
       </c>
-      <c r="P11" t="str">
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <v/>
-      </c>
-      <c r="R11" t="str">
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U11" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11" t="str">
-        <v/>
-      </c>
-      <c r="Y11" t="str">
-        <v/>
-      </c>
-      <c r="Z11">
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U12" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
+      <c r="Z12">
         <v>2</v>
       </c>
-      <c r="AA11" t="str">
-        <v/>
-      </c>
-      <c r="AB11">
+      <c r="AA12" t="str">
+        <v/>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12">
+    <row r="13" xml:space="preserve">
+      <c r="A13">
         <v>936</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B13" t="str">
         <v>updated</v>
       </c>
-      <c r="C12" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D12">
+      <c r="C13" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D13">
         <v>44996</v>
       </c>
-      <c r="E12" t="str" xml:space="preserve">
+      <c r="E13" t="str" xml:space="preserve">
         <v xml:space="preserve">Billy_x000d_
 The Grim Adventures of Billy and Mandy_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072614785454110/Grim_Adventures_of_Billy_and_Mandy.png</v>
       </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072762936668190/Grim_Adventures_Billy_Head.png</v>
       </c>
-      <c r="N12" t="str">
-        <v/>
-      </c>
-      <c r="O12" t="str">
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072763460956220/Grim_Adventures_Billy_Outfit.png</v>
       </c>
-      <c r="P12" t="str">
-        <v/>
-      </c>
-      <c r="Q12" t="str">
-        <v/>
-      </c>
-      <c r="R12" t="str">
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U12" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12" t="str">
-        <v/>
-      </c>
-      <c r="Y12" t="str">
-        <v/>
-      </c>
-      <c r="Z12">
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U13" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="AA12" t="str">
-        <v/>
-      </c>
-      <c r="AB12">
+      <c r="AA13" t="str">
+        <v/>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13">
+    <row r="14" xml:space="preserve">
+      <c r="A14">
         <v>937</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B14" t="str">
         <v>updated</v>
       </c>
-      <c r="C13" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="D13">
+      <c r="C14" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="D14">
         <v>44996</v>
       </c>
-      <c r="E13" t="str" xml:space="preserve">
+      <c r="E14" t="str" xml:space="preserve">
         <v xml:space="preserve">Mandy_x000d_
 The Grim Adventures of Billy and Mandy_x000d_
 (Lootbox?)</v>
       </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
         <v>Accepted</v>
       </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072614785454110/Grim_Adventures_of_Billy_and_Mandy.png</v>
       </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="M13" t="str">
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072668577402921/Grim_Adventures_Mandy_Hair.png</v>
       </c>
-      <c r="N13" t="str">
-        <v/>
-      </c>
-      <c r="O13" t="str">
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084072668657102918/Grim_Adventures_Mandy_Dress.png</v>
       </c>
-      <c r="P13" t="str">
-        <v/>
-      </c>
-      <c r="Q13" t="str">
-        <v/>
-      </c>
-      <c r="R13" t="str">
-        <v/>
-      </c>
-      <c r="S13" t="str">
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="U13" t="str">
-        <v>nolava</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13" t="str">
-        <v/>
-      </c>
-      <c r="Y13" t="str">
-        <v/>
-      </c>
-      <c r="Z13">
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="U14" t="str">
+        <v>nolava</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
+      <c r="Z14">
         <v>2</v>
       </c>
-      <c r="AA13" t="str">
-        <v/>
-      </c>
-      <c r="AB13">
+      <c r="AA14" t="str">
+        <v/>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14">
+    <row r="15" xml:space="preserve">
+      <c r="A15">
         <v>938</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B15" t="str">
         <v>updated</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <v>Kuuucki</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>44997</v>
       </c>
-      <c r="E14" t="str" xml:space="preserve">
+      <c r="E15" t="str" xml:space="preserve">
         <v xml:space="preserve">Obito 
 Naruto Shippuden
 (Decline note: Complete coverage of the sweatling's face/head is not something that fits with the current style)_x000d_
 </v>
       </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
         <v>Declined After Review</v>
       </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="K14" t="str">
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084477174142218380/Obito_Itachi.png</v>
       </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1084477174368702605/Obito_mask.png</v>
       </c>
-      <c r="N14" t="str">
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <v/>
-      </c>
-      <c r="Q14" t="str">
-        <v/>
-      </c>
-      <c r="R14" t="str">
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <v/>
-      </c>
-      <c r="T14" t="str">
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
         <v>kuuucki</v>
       </c>
-      <c r="U14" t="str">
+      <c r="U15" t="str">
         <v>kuuucki</v>
       </c>
-      <c r="V14" t="str">
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <v/>
-      </c>
-      <c r="X14" t="str">
-        <v/>
-      </c>
-      <c r="Y14" t="str">
-        <v/>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="str">
-        <v/>
-      </c>
-      <c r="AB14" t="str">
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="str">
+        <v/>
+      </c>
+      <c r="AB15" t="str">
         <v/>
       </c>
     </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15">
+    <row r="16" xml:space="preserve">
+      <c r="A16">
         <v>1055</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <v>updated</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <v>TerribleArt</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>45072</v>
       </c>
-      <c r="E15" t="str" xml:space="preserve">
+      <c r="E16" t="str" xml:space="preserve">
         <v xml:space="preserve">Mickey?
 Mickey Mouse
 (Decline note: Complete coverage of the sweatling's face/head is not something that fits with the current style)_x000d_
 </v>
       </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
         <v>Under Review</v>
       </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1111585603058946079/Mickey.png</v>
       </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="M15" t="str">
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1111585799616606238/Mickey_Head.png</v>
       </c>
-      <c r="N15" t="str">
-        <v/>
-      </c>
-      <c r="O15" t="str">
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1111585811352256583/Mickey_Body.png</v>
       </c>
-      <c r="P15" t="str">
+      <c r="P16" t="str">
         <v>https://cdn.discordapp.com/attachments/699111007649398865/1111585820458094642/Mickey_Hand.png</v>
       </c>
-      <c r="Q15" t="str">
-        <v/>
-      </c>
-      <c r="R15" t="str">
-        <v/>
-      </c>
-      <c r="S15" t="str">
-        <v/>
-      </c>
-      <c r="T15" t="str">
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
         <v>terribleart</v>
       </c>
-      <c r="U15" t="str">
+      <c r="U16" t="str">
         <v>terribleart</v>
       </c>
-      <c r="V15" t="str">
-        <v/>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15" t="str">
-        <v/>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>3</v>
       </c>
-      <c r="AA15" t="str">
-        <v/>
-      </c>
-      <c r="AB15" t="str">
+      <c r="AA16" t="str">
+        <v/>
+      </c>
+      <c r="AB16" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB16"/>
   </ignoredErrors>
 </worksheet>
 </file>